--- a/里程碑2.0.xlsx
+++ b/里程碑2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Documents\WeChat Files\SinceSummer___\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Documents\GitHub\Team108\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C52688-9875-4983-A25A-FD28D660EADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA34AF33-46A6-4A65-8549-8143955B05A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>开始日期</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +114,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +132,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -157,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,11 +191,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -240,7 +262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,7 +281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -327,7 +349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d;@</c:formatCode>
                 <c:ptCount val="20"/>
@@ -405,7 +427,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,7 +506,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -552,7 +574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1341,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695449</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1636,430 +1658,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>43529</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>43534</v>
       </c>
-      <c r="D2" s="4">
-        <f>_xlfn.DAYS(C2,B2)+1</f>
+      <c r="E2" s="4">
+        <f>_xlfn.DAYS(D2,C2)+1</f>
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>43535</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>43541</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D21" si="0">_xlfn.DAYS(C3,B3)+1</f>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E21" si="0">_xlfn.DAYS(D3,C3)+1</f>
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>43535</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>43539</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>43540</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>43546</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>43547</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>43555</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>43542</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>43555</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>43556</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>43557</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>43558</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>43562</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>43558</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>43567</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>43563</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>43576</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>43577</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>43578</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>43563</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>43583</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>43563</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>43583</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>43584</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>43597</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>43598</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>43599</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>43600</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>43618</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>43619</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>43620</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>43621</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>43625</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>43626</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>43627</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>43628</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>43634</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:D21">
+  <conditionalFormatting sqref="B2:E21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
